--- a/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
+++ b/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.35545855669431</v>
+        <v>0.64454144330569</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.961225462734375</v>
+        <v>0.038774537265625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.133440870081889</v>
+        <v>0.866559129918111</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.906110542624524</v>
+        <v>0.09388945737547599</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.084494805341832</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0127388535031847</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.636942675159236</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0290305997765676</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0632661216222614</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0029257451718888</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.47363450642475</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.09735265005532399</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.857954545454545</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0198775510204082</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0410484070076386</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0047303146089408</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.193738314039066</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.135282598027669</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.474860335195531</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0782122905027933</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0001995384612331</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0335195530726257</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.720670391061452</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>215</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.8587662337662</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.33203247871238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>18.5421925845415</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.51570522500755</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.432685803104972</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.866279069767442</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.162790697674419</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0842504837798545</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.407643312101911</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0764331210191083</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.953716149406591</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.11875</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.19555</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0023313829787234</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0069884910934352</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.19221834759571</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.351489680766859</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.466292134831461</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.001337912087912</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0093849888958154</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0061127271111331</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0178388278388275</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9843916020468571</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0502793296089385</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.720670391061452</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.002663027963266</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0069588265805711</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.000443244447168</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.20499002862717</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9903196531753899</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.558659217877095</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0052417484301412</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0099522361486969</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0016707916086977</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.24803534050983</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.007927653922048699</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0111731843575419</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.262569832402235</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0002727103036336</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0004983690952218</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.81806869089099</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.358352691578253</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.808988764044944</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0056173103212576</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0178180039640378</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0400853785397262</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.365948555130794</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
+++ b/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.659255653670604</v>
+        <v>0.088462579575473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.037037037037037</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="H2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.525</v>
+        <v>1.45</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0348271752085817</v>
+        <v>-0.227926035003065</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.164831559600809</v>
+        <v>-0.44468331068867</v>
       </c>
       <c r="M2" t="n">
-        <v>0.282727689314656</v>
+        <v>0.0254416722553366</v>
       </c>
       <c r="N2" t="n">
-        <v>2.28374919400536</v>
+        <v>-15.7190368967631</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.64454144330569</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.325</v>
+        <v>10.455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0116641221040107</v>
+        <v>0.0216930602292445</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0837969005492728</v>
+        <v>-0.0510140344728572</v>
       </c>
       <c r="M3" t="n">
-        <v>0.103513818325573</v>
+        <v>0.121199823840711</v>
       </c>
       <c r="N3" t="n">
-        <v>0.112969705607852</v>
+        <v>0.207489815679048</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.029910620179402</v>
+        <v>0.186249044795175</v>
       </c>
       <c r="G4" t="n">
-        <v>0.440677966101695</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.186440677966102</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007454081632653</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.155231824082205</v>
+        <v>0.282429603295822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H5" t="n">
-        <v>0.745762711864407</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -861,16 +861,16 @@
         <v>380</v>
       </c>
       <c r="K5" t="n">
-        <v>26.834693877551</v>
+        <v>12.1345514950166</v>
       </c>
       <c r="L5" t="n">
-        <v>-23.9901477832512</v>
+        <v>-29.8400269966386</v>
       </c>
       <c r="M5" t="n">
-        <v>73.99249869919819</v>
+        <v>71.0683945660585</v>
       </c>
       <c r="N5" t="n">
-        <v>7.06176154672395</v>
+        <v>3.19330302500437</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.50514119090627</v>
+        <v>0.494848532410944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.846153846153846</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="H6" t="n">
-        <v>0.192307692307692</v>
+        <v>0.163636363636364</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.293916983076961</v>
+        <v>0.999427458018683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.322033898305085</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="H7" t="n">
         <v>0.101694915254237</v>
@@ -1043,16 +1043,16 @@
         <v>0.002</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0002183203825463</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0005217857142857</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-10.9160191273162</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.234663468277801</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G8" t="n">
         <v>0.0677966101694915</v>
       </c>
       <c r="H8" t="n">
-        <v>0.898305084745763</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.152</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0071912774725274</v>
+        <v>0.0087287974122651</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006614061241866</v>
+        <v>-0.008509233882991201</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0286089501339556</v>
+        <v>0.0226986598196002</v>
       </c>
       <c r="N8" t="n">
-        <v>4.73110360034702</v>
+        <v>5.74262987649023</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.038774537265625</v>
+        <v>0.494646114968217</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.741379310344828</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.495</v>
+        <v>7.5</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0401373626373624</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0738842546874164</v>
+        <v>-0.0397280628539044</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0024370825317844</v>
+        <v>0.0377866933583449</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.535521849731319</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0952151319127621</v>
+        <v>0.154255790669362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.627118644067797</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0125429258241758</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0038279468524839</v>
+        <v>-0.0050005224313948</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0320501240080613</v>
+        <v>0.0250858516483516</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3781916612799</v>
+        <v>5.5746336996337</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.212428317639825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.310344827586207</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.362068965517241</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.41</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0202654330963155</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.138958980921951</v>
+        <v>-0.005549451214762</v>
       </c>
       <c r="M11" t="n">
-        <v>0.257532493148902</v>
+        <v>0.0406374017679859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.94278856007694</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.471083053005379</v>
+        <v>0.466048298589061</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.677966101694915</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.41</v>
+        <v>0.017</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001661737943585</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.018283863623592</v>
+        <v>-0.0010648688046647</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0435126267690699</v>
+        <v>0.0015811688311688</v>
       </c>
       <c r="N12" t="n">
-        <v>0.405301937459775</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.280019588464621</v>
+        <v>0.306715686477583</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.593220338983051</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.018</v>
+        <v>1.85</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004969387755102</v>
+        <v>0.0393940781440782</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0008027472527472</v>
+        <v>-0.15051510989011</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0023487877132265</v>
+        <v>0.706468130449752</v>
       </c>
       <c r="N13" t="n">
-        <v>2.76077097505669</v>
+        <v>2.12940962940963</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.783739187029952</v>
+        <v>0.001224143505213</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H14" t="n">
-        <v>0.88135593220339</v>
+        <v>0.836734693877551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.06</v>
+        <v>1.795</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.113575971731449</v>
+        <v>-0.149556414922657</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.35999941761708</v>
+        <v>-0.216940199832282</v>
       </c>
       <c r="M14" t="n">
-        <v>0.213409829314539</v>
+        <v>-0.065050435930199</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.51339668599266</v>
+        <v>-8.33183370042658</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.00710889636069</v>
+        <v>0.954662080297628</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0188679245283019</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.820754716981132</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.955</v>
+        <v>10.24</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.101958128078818</v>
+        <v>0.0441798597501223</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.164627578304049</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03592486061132</v>
+        <v>0.0827910299695009</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.21524951809809</v>
+        <v>0.431443942872288</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.661832024413658</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.866559129918111</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.906779661016949</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.175</v>
+        <v>0.005</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0346117219474603</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0077946466089649</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0695960716099422</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.340164343463983</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.176504423505325</v>
+        <v>0.0097410222721191</v>
       </c>
       <c r="G17" t="n">
-        <v>0.436974789915966</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H17" t="n">
-        <v>0.109243697478992</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>17.5819099378882</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.193208717377</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>33.3972354594713</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.03276397515528</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0003769766811095</v>
+        <v>0.630190889264079</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0504201680672269</v>
+        <v>0.875</v>
       </c>
       <c r="H18" t="n">
-        <v>0.73109243697479</v>
+        <v>0.151785714285714</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>239</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>20.0686813186813</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>9.93911134286969</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>41.4717258781642</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>8.39693779024323</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.386215902328347</v>
+        <v>0.998369895505259</v>
       </c>
       <c r="G19" t="n">
-        <v>0.875</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="H19" t="n">
-        <v>0.151785714285714</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0001961600429645</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,43 +2192,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9623767234366259</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.260504201680672</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H20" t="n">
-        <v>0.100840336134454</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.1831</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001521241149521</v>
+        <v>-0.0066955714558893</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0028542278767313</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.235004028031815</v>
+        <v>0.343630067723187</v>
       </c>
       <c r="G21" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8151260504201679</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.177</v>
+        <v>7.51</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.002210956416465</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0004057120605731</v>
+        <v>-0.0127235220259419</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0040774532195136</v>
+        <v>0.008027472527472599</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.029440165332424</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.09388945737547599</v>
+        <v>0.426982457300922</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H22" t="n">
-        <v>0.508474576271186</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.5</v>
+        <v>0.195</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.008470547309832901</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0194679448654952</v>
+        <v>-0.004969387755102</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0014258192899076</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.112940630797773</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.103056545104697</v>
+        <v>0.356893890340307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0672268907563025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.65546218487395</v>
+        <v>0.579831932773109</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.19</v>
+        <v>0.401</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0021671611136467</v>
+        <v>0.0016227785372522</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0006613492509435</v>
+        <v>-0.0044523347084744</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0066667608292506</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N23" t="n">
-        <v>1.14061111244565</v>
+        <v>0.404682926995567</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0249806844360344</v>
+        <v>0.0025655371540677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.26271186440678</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23728813559322</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0695714285714286</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0002273559690444</v>
       </c>
       <c r="M24" t="n">
-        <v>0.19991789819376</v>
+        <v>0.001000123262874</v>
       </c>
       <c r="N24" t="n">
-        <v>6.95714285714286</v>
+        <v>3.80171740827479</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.231765620742613</v>
+        <v>0.0823219167072362</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.647058823529412</v>
+        <v>0.848739495798319</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4</v>
+        <v>1.56</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0036675034230944</v>
+        <v>0.0555091185410334</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0033447802197802</v>
+        <v>-0.0086721504791953</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0125261522926593</v>
+        <v>0.165102345415778</v>
       </c>
       <c r="N25" t="n">
-        <v>0.916875855773618</v>
+        <v>3.55827682955343</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0021178747307561</v>
+        <v>0.0046114342150079</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34453781512605</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.016</v>
+        <v>1.98</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006138655462184001</v>
+        <v>-0.0622520917260614</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002630415937318</v>
+        <v>-0.0981092929082848</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0010413959495086</v>
+        <v>-0.0234638491789805</v>
       </c>
       <c r="N26" t="n">
-        <v>3.83665966386555</v>
+        <v>-3.14404503666977</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0266771337163641</v>
+        <v>0.6030658165930191</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.840336134453782</v>
+        <v>0.853932584269663</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>10.305</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0631460418562329</v>
+        <v>0.0033323205667284</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0110071922867372</v>
+        <v>-0.017476076555024</v>
       </c>
       <c r="M27" t="n">
-        <v>0.17592817418044</v>
+        <v>0.0288421529011862</v>
       </c>
       <c r="N27" t="n">
-        <v>4.20973612374886</v>
+        <v>0.0323369293229347</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.084494805341832</v>
+        <v>0.470977535178278</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0127388535031847</v>
+        <v>0.463687150837989</v>
       </c>
       <c r="H28" t="n">
-        <v>0.636942675159236</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.97</v>
+        <v>0.005</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0290305997765676</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0632661216222614</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0029257451718888</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.47363450642475</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.09735265005532399</v>
+        <v>0.0001334442788108</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="H29" t="n">
-        <v>0.857954545454545</v>
+        <v>0.726256983240223</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.26</v>
+        <v>216</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0198775510204082</v>
+        <v>12.5515463917526</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0410484070076386</v>
+        <v>6.70982963730212</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0047303146089408</v>
+        <v>19.9183306608133</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.193738314039066</v>
+        <v>5.81090110729286</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,20 +3109,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.135282598027669</v>
+        <v>0.757168266231862</v>
       </c>
       <c r="G30" t="n">
-        <v>0.474860335195531</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0782122905027933</v>
+        <v>0.162790697674419</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
         <v>0.005</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0001995384612331</v>
+        <v>0.592530165401333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.449704142011834</v>
       </c>
       <c r="H31" t="n">
-        <v>0.720670391061452</v>
+        <v>0.0710059171597633</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>215</v>
+        <v>0.002</v>
       </c>
       <c r="K31" t="n">
-        <v>11.8587662337662</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>6.33203247871238</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>18.5421925845415</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.51570522500755</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.432685803104972</v>
+        <v>0.939603848404114</v>
       </c>
       <c r="G32" t="n">
-        <v>0.866279069767442</v>
+        <v>0.112426035502959</v>
       </c>
       <c r="H32" t="n">
-        <v>0.162790697674419</v>
+        <v>0.804733727810651</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.188</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.002215128032345</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0064693780802679</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.17825959167288</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0842504837798545</v>
+        <v>0.318950831617109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.407643312101911</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0764331210191083</v>
+        <v>0.47752808988764</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.515</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0019083072100313</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0097548100381343</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0053065620944865</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.0253933095147224</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.953716149406591</v>
+        <v>0.971721116220424</v>
       </c>
       <c r="G34" t="n">
-        <v>0.11875</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="H34" t="n">
-        <v>0.825</v>
+        <v>0.70391061452514</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.19555</v>
+        <v>0.2169</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0023313829787234</v>
+        <v>-0.0029089628238429</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0069884910934352</v>
+        <v>-0.0067464355943119</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-0.0002507776240535</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.19221834759571</v>
+        <v>-1.34115390679713</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.351489680766859</v>
+        <v>0.983027801259073</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.466292134831461</v>
+        <v>0.5418994413407821</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.5</v>
+        <v>0.418</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001337912087912</v>
+        <v>-0.0049907779399829</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0093849888958154</v>
+        <v>-0.0088815932801473</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0061127271111331</v>
+        <v>-0.0014255347135893</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0178388278388275</v>
+        <v>-1.19396601434998</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0298337907734002</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0111731843575419</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.279329608938547</v>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9843916020468571</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0502793296089385</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.720670391061452</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
       <c r="J36" t="n">
-        <v>0.221</v>
+        <v>0.016</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002663027963266</v>
+        <v>0.0002278540237055</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0069588265805711</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.000443244447168</v>
+        <v>0.0004655764496334</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.20499002862717</v>
+        <v>1.4240876481597</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9903196531753899</v>
+        <v>0.302085904285411</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.558659217877095</v>
+        <v>0.810055865921788</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.42</v>
+        <v>1.55</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0052417484301412</v>
+        <v>0.0071477495107632</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0099522361486969</v>
+        <v>-0.0175338268813957</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0016707916086977</v>
+        <v>0.0415925649765464</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.24803534050983</v>
+        <v>0.461145129726658</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Makakahi at u/s Eketahuna STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.007927653922048699</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0111731843575419</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.262569832402235</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0002727103036336</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0004983690952218</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.81806869089099</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1828591</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5496386</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Makakahi at u/s Eketahuna STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.358352691578253</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.808988764044944</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.535</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0056173103212576</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0178180039640378</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0400853785397262</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.365948555130794</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1828591</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5496386</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
+++ b/trend_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -124,58 +124,55 @@
     <t>Turbidity</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -654,38 +651,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.088462579575473</v>
+        <v>0.215896391154267</v>
       </c>
       <c r="G2">
-        <v>0.0444444444444444</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H2">
-        <v>0.866666666666667</v>
+        <v>0.852941176470588</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="K2">
-        <v>-0.227926035003065</v>
+        <v>-0.185577367205543</v>
       </c>
       <c r="L2">
-        <v>-0.44468331068867</v>
+        <v>-0.505056781360721</v>
       </c>
       <c r="M2">
-        <v>0.0254416722553366</v>
+        <v>0.131670067124441</v>
       </c>
       <c r="N2">
-        <v>-15.7190368967631</v>
+        <v>-14.7283624766304</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1828591</v>
       </c>
@@ -693,19 +690,19 @@
         <v>5496386</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,40 +719,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>0.722866081837841</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.931034482758621</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.455</v>
+        <v>10.55</v>
       </c>
       <c r="K3">
-        <v>0.0216930602292445</v>
+        <v>0.102315508192526</v>
       </c>
       <c r="L3">
-        <v>-0.0510140344728572</v>
+        <v>-0.0088862188316735</v>
       </c>
       <c r="M3">
-        <v>0.121199823840711</v>
+        <v>0.221963794360669</v>
       </c>
       <c r="N3">
-        <v>0.207489815679048</v>
+        <v>0.969815243531048</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1828591</v>
@@ -764,19 +761,19 @@
         <v>5496386</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,22 +790,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>0.186249044795175</v>
+        <v>0.343530527396077</v>
       </c>
       <c r="G4">
-        <v>0.457627118644068</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H4">
-        <v>0.169491525423729</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -823,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1828591</v>
@@ -835,19 +832,19 @@
         <v>5496386</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +861,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.282429603295822</v>
+        <v>0.998376629555258</v>
       </c>
       <c r="G5">
         <v>0.0677966101694915</v>
       </c>
       <c r="H5">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K5">
-        <v>12.1345514950166</v>
+        <v>-52.9347826086957</v>
       </c>
       <c r="L5">
-        <v>-29.8400269966386</v>
+        <v>-109.380653071047</v>
       </c>
       <c r="M5">
-        <v>71.0683945660585</v>
+        <v>-26.7409490048807</v>
       </c>
       <c r="N5">
-        <v>3.19330302500437</v>
+        <v>-21.1739130434783</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -906,19 +903,19 @@
         <v>5496386</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.494848532410944</v>
+        <v>0.31639224313699</v>
       </c>
       <c r="G6">
-        <v>0.872727272727273</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="H6">
-        <v>0.163636363636364</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -965,11 +962,11 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
       <c r="Q6">
         <v>1828591</v>
       </c>
@@ -977,19 +974,19 @@
         <v>5496386</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,40 +1003,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.999427458018683</v>
+        <v>0.999999670465049</v>
       </c>
       <c r="G7">
-        <v>0.440677966101695</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="H7">
-        <v>0.101694915254237</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
-        <v>-0.0002183203825463</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="L7">
-        <v>-0.0005217857142857</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-10.9160191273162</v>
+        <v>-28.5128805620609</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1828591</v>
@@ -1048,19 +1045,19 @@
         <v>5496386</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,40 +1074,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.192617927201847</v>
+        <v>0.765336531722199</v>
       </c>
       <c r="G8">
         <v>0.0677966101694915</v>
       </c>
       <c r="H8">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.152</v>
+        <v>0.143</v>
       </c>
       <c r="K8">
-        <v>0.0087287974122651</v>
+        <v>-0.0041093014128728</v>
       </c>
       <c r="L8">
-        <v>-0.008509233882991201</v>
+        <v>-0.0177466710470894</v>
       </c>
       <c r="M8">
-        <v>0.0226986598196002</v>
+        <v>0.0054999597815599</v>
       </c>
       <c r="N8">
-        <v>5.74262987649023</v>
+        <v>-2.87363735165933</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1828591</v>
@@ -1119,19 +1116,19 @@
         <v>5496386</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,40 +1145,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>0.494646114968217</v>
+        <v>0.990576153398087</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.793103448275862</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>7.51</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0534358864027539</v>
       </c>
       <c r="L9">
-        <v>-0.0397280628539044</v>
+        <v>0.0162245958248944</v>
       </c>
       <c r="M9">
-        <v>0.0377866933583449</v>
+        <v>0.093653846153846</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.711529778998054</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1828591</v>
@@ -1190,16 +1187,16 @@
         <v>5496386</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,40 +1213,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>0.154255790669362</v>
+        <v>0.808633455557387</v>
       </c>
       <c r="G10">
         <v>0.0338983050847458</v>
       </c>
       <c r="H10">
-        <v>0.610169491525424</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K10">
+        <v>-0.0058110263944915</v>
+      </c>
+      <c r="L10">
+        <v>-0.0198060842817317</v>
+      </c>
+      <c r="M10">
         <v>0.0100343406593407</v>
       </c>
-      <c r="L10">
-        <v>-0.0050005224313948</v>
-      </c>
-      <c r="M10">
-        <v>0.0250858516483516</v>
-      </c>
       <c r="N10">
-        <v>5.5746336996337</v>
+        <v>-3.63189149655724</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1828591</v>
@@ -1258,19 +1255,19 @@
         <v>5496386</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>0.212428317639825</v>
+        <v>0.786360546914012</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1302,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="K11">
-        <v>0.0202654330963155</v>
+        <v>-0.0126196628253473</v>
       </c>
       <c r="L11">
-        <v>-0.005549451214762</v>
+        <v>-0.0299871886578417</v>
       </c>
       <c r="M11">
-        <v>0.0406374017679859</v>
+        <v>0.0167239010989011</v>
       </c>
       <c r="N11">
-        <v>4.94278856007694</v>
+        <v>-3.32096390140719</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1828591</v>
@@ -1329,19 +1326,19 @@
         <v>5496386</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>0.466048298589061</v>
+        <v>0.974284056797714</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1373,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="L12">
-        <v>-0.0010648688046647</v>
+        <v>-0.0029912144680013</v>
       </c>
       <c r="M12">
-        <v>0.0015811688311688</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-8.361950549450549</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1828591</v>
@@ -1400,19 +1397,19 @@
         <v>5496386</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,40 +1426,40 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>0.306715686477583</v>
+        <v>0.8604918433943179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.932203389830508</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="K13">
-        <v>0.0393940781440782</v>
+        <v>-0.120124020716126</v>
       </c>
       <c r="L13">
-        <v>-0.15051510989011</v>
+        <v>-0.331468270758249</v>
       </c>
       <c r="M13">
-        <v>0.706468130449752</v>
+        <v>0.0445276133523052</v>
       </c>
       <c r="N13">
-        <v>2.12940962940963</v>
+        <v>-7.7002577382132</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1828591</v>
@@ -1471,19 +1468,19 @@
         <v>5496386</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1497,37 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>0.001224143505213</v>
+        <v>0.0014734919343399</v>
       </c>
       <c r="G14">
-        <v>0.0204081632653061</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H14">
-        <v>0.836734693877551</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
-        <v>1.795</v>
+        <v>1.745</v>
       </c>
       <c r="K14">
-        <v>-0.149556414922657</v>
+        <v>-0.168923432682425</v>
       </c>
       <c r="L14">
-        <v>-0.216940199832282</v>
+        <v>-0.246571833132848</v>
       </c>
       <c r="M14">
-        <v>-0.065050435930199</v>
+        <v>-0.0733351967832942</v>
       </c>
       <c r="N14">
-        <v>-8.33183370042658</v>
+        <v>-9.68042594168627</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
         <v>47</v>
@@ -1542,19 +1539,19 @@
         <v>5496386</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>0.954662080297628</v>
+        <v>0.980392995853885</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1586,25 +1583,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.24</v>
+        <v>10.36</v>
       </c>
       <c r="K15">
-        <v>0.0441798597501223</v>
+        <v>0.0579656722993981</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0080697981298777</v>
       </c>
       <c r="M15">
-        <v>0.0827910299695009</v>
+        <v>0.0984044778214621</v>
       </c>
       <c r="N15">
-        <v>0.431443942872288</v>
+        <v>0.559514211384151</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>1828591</v>
@@ -1613,19 +1610,19 @@
         <v>5496386</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>0.661832024413658</v>
+        <v>0.786193294356955</v>
       </c>
       <c r="G16">
-        <v>0.428571428571429</v>
+        <v>0.478991596638655</v>
       </c>
       <c r="H16">
         <v>0.109243697478992</v>
@@ -1672,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
@@ -1684,19 +1681,19 @@
         <v>5496386</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.0097410222721191</v>
+        <v>0.48442489355345</v>
       </c>
       <c r="G17">
         <v>0.0504201680672269</v>
       </c>
       <c r="H17">
-        <v>0.739495798319328</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1731,22 +1728,22 @@
         <v>250</v>
       </c>
       <c r="K17">
-        <v>17.5819099378882</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.193208717377</v>
+        <v>-10.8163854755538</v>
       </c>
       <c r="M17">
-        <v>33.3972354594713</v>
+        <v>11.2843263762086</v>
       </c>
       <c r="N17">
-        <v>7.03276397515528</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1828591</v>
@@ -1755,19 +1752,19 @@
         <v>5496386</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.630190889264079</v>
+        <v>0.313284217343796</v>
       </c>
       <c r="G18">
-        <v>0.875</v>
+        <v>0.866071428571429</v>
       </c>
       <c r="H18">
-        <v>0.151785714285714</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1814,11 +1811,11 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
         <v>40</v>
       </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
       <c r="Q18">
         <v>1828591</v>
       </c>
@@ -1826,19 +1823,19 @@
         <v>5496386</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.998369895505259</v>
+        <v>0.999998025506269</v>
       </c>
       <c r="G19">
-        <v>0.361344537815126</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="H19">
-        <v>0.100840336134454</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1873,22 +1870,22 @@
         <v>0.002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.000148234577922</v>
       </c>
       <c r="L19">
-        <v>-0.0001961600429645</v>
+        <v>-0.0002730627677312</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-7.4117288961039</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q19">
         <v>1828591</v>
@@ -1897,19 +1894,19 @@
         <v>5496386</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.827968524006046</v>
       </c>
       <c r="G20">
-        <v>0.117647058823529</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H20">
         <v>0.8067226890756301</v>
@@ -1941,22 +1938,22 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.1831</v>
+        <v>0.177</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0024302348336594</v>
       </c>
       <c r="L20">
-        <v>-0.0066955714558893</v>
+        <v>-0.009688710654408701</v>
       </c>
       <c r="M20">
-        <v>0.0028542278767313</v>
+        <v>0.000497887131952</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-1.3730140303161</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
@@ -1968,19 +1965,19 @@
         <v>5496386</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,40 +1994,40 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>0.343630067723187</v>
+        <v>0.798230949360016</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.508474576271186</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.51</v>
+        <v>7.52</v>
       </c>
       <c r="K21">
-        <v>-0.002210956416465</v>
+        <v>0.0065223214285712</v>
       </c>
       <c r="L21">
-        <v>-0.0127235220259419</v>
+        <v>-0.0052844358573501</v>
       </c>
       <c r="M21">
-        <v>0.008027472527472599</v>
+        <v>0.0184457057746158</v>
       </c>
       <c r="N21">
-        <v>-0.029440165332424</v>
+        <v>0.0867329977203629</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1828591</v>
@@ -2039,16 +2036,16 @@
         <v>5496386</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,34 +2065,34 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>0.426982457300922</v>
+        <v>0.814315463335607</v>
       </c>
       <c r="G22">
-        <v>0.0672268907563025</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H22">
-        <v>0.588235294117647</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0.195</v>
+        <v>0.18</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.002484693877551</v>
       </c>
       <c r="L22">
-        <v>-0.004969387755102</v>
+        <v>-0.0096302803638276</v>
       </c>
       <c r="M22">
-        <v>0.0050171703296703</v>
+        <v>0.0012451558939059</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>-1.38038548752834</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
@@ -2107,19 +2104,19 @@
         <v>5496386</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,40 +2133,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>0.356893890340307</v>
+        <v>0.9048862309381051</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.579831932773109</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.401</v>
+        <v>0.38</v>
       </c>
       <c r="K23">
-        <v>0.0016227785372522</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L23">
-        <v>-0.0044523347084744</v>
+        <v>-0.0119600830271108</v>
       </c>
       <c r="M23">
-        <v>0.0100343406593407</v>
+        <v>0.0011142022109841</v>
       </c>
       <c r="N23">
-        <v>0.404682926995567</v>
+        <v>-1.31399071842285</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1828591</v>
@@ -2178,19 +2175,19 @@
         <v>5496386</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>0.0025655371540677</v>
+        <v>0.212914382300808</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.361344537815126</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2225,23 +2222,23 @@
         <v>0.015</v>
       </c>
       <c r="K24">
-        <v>0.0005702576112412</v>
+        <v>0.000133108600583</v>
       </c>
       <c r="L24">
-        <v>0.0002273559690444</v>
+        <v>-0.0001395148968678</v>
       </c>
       <c r="M24">
-        <v>0.001000123262874</v>
+        <v>0.0005360188420274</v>
       </c>
       <c r="N24">
-        <v>3.80171740827479</v>
+        <v>0.8873906705539371</v>
       </c>
       <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
         <v>40</v>
       </c>
-      <c r="P24" t="s">
-        <v>47</v>
-      </c>
       <c r="Q24">
         <v>1828591</v>
       </c>
@@ -2249,19 +2246,19 @@
         <v>5496386</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,19 +2272,19 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>0.0823219167072362</v>
+        <v>0.417219444131094</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.848739495798319</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2296,22 +2293,22 @@
         <v>1.56</v>
       </c>
       <c r="K25">
-        <v>0.0555091185410334</v>
+        <v>0.0033447802197802</v>
       </c>
       <c r="L25">
-        <v>-0.0086721504791953</v>
+        <v>-0.041510142519383</v>
       </c>
       <c r="M25">
-        <v>0.165102345415778</v>
+        <v>0.069528681005342</v>
       </c>
       <c r="N25">
-        <v>3.55827682955343</v>
+        <v>0.21440898844745</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>1828591</v>
@@ -2320,19 +2317,19 @@
         <v>5496386</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,37 +2346,37 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>0.0046114342150079</v>
+        <v>0.002322716720041</v>
       </c>
       <c r="G26">
-        <v>0.0133333333333333</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="H26">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>1.98</v>
+        <v>1.955</v>
       </c>
       <c r="K26">
-        <v>-0.0622520917260614</v>
+        <v>-0.0729258745714645</v>
       </c>
       <c r="L26">
-        <v>-0.0981092929082848</v>
+        <v>-0.112120269784344</v>
       </c>
       <c r="M26">
-        <v>-0.0234638491789805</v>
+        <v>-0.0324090505767525</v>
       </c>
       <c r="N26">
-        <v>-3.14404503666977</v>
+        <v>-3.73022376324626</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
         <v>47</v>
@@ -2391,19 +2388,19 @@
         <v>5496386</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,40 +2417,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>0.6030658165930191</v>
+        <v>0.9018341199248729</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.853932584269663</v>
+        <v>0.842696629213483</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.305</v>
+        <v>10.36</v>
       </c>
       <c r="K27">
-        <v>0.0033323205667284</v>
+        <v>0.0163319509802378</v>
       </c>
       <c r="L27">
-        <v>-0.017476076555024</v>
+        <v>-0.0033326884507829</v>
       </c>
       <c r="M27">
-        <v>0.0288421529011862</v>
+        <v>0.0393625019034706</v>
       </c>
       <c r="N27">
-        <v>0.0323369293229347</v>
+        <v>0.15764431448106</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1828591</v>
@@ -2462,19 +2459,19 @@
         <v>5496386</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.470977535178278</v>
+        <v>0.596735185242075</v>
       </c>
       <c r="G28">
-        <v>0.463687150837989</v>
+        <v>0.491620111731844</v>
       </c>
       <c r="H28">
         <v>0.0782122905027933</v>
@@ -2521,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q28">
         <v>1828591</v>
@@ -2533,19 +2530,19 @@
         <v>5496386</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,40 +2559,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>0.0001334442788108</v>
+        <v>0.0155966316191846</v>
       </c>
       <c r="G29">
         <v>0.0335195530726257</v>
       </c>
       <c r="H29">
-        <v>0.726256983240223</v>
+        <v>0.743016759776536</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K29">
-        <v>12.5515463917526</v>
+        <v>6.81619587867562</v>
       </c>
       <c r="L29">
-        <v>6.70982963730212</v>
+        <v>1.41102497552734</v>
       </c>
       <c r="M29">
-        <v>19.9183306608133</v>
+        <v>12.9637810491802</v>
       </c>
       <c r="N29">
-        <v>5.81090110729286</v>
+        <v>3.2458075612741</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <v>1828591</v>
@@ -2604,19 +2601,19 @@
         <v>5496386</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>0.757168266231862</v>
+        <v>0.7083969180944441</v>
       </c>
       <c r="G30">
-        <v>0.86046511627907</v>
+        <v>0.848837209302326</v>
       </c>
       <c r="H30">
-        <v>0.162790697674419</v>
+        <v>0.174418604651163</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2663,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1828591</v>
@@ -2675,19 +2672,19 @@
         <v>5496386</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.592530165401333</v>
+        <v>0.94027472343966</v>
       </c>
       <c r="G31">
-        <v>0.449704142011834</v>
+        <v>0.474860335195531</v>
       </c>
       <c r="H31">
-        <v>0.0710059171597633</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2734,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1828591</v>
@@ -2746,19 +2743,19 @@
         <v>5496386</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2775,37 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>0.939603848404114</v>
+        <v>0.995791102622016</v>
       </c>
       <c r="G32">
-        <v>0.112426035502959</v>
+        <v>0.11731843575419</v>
       </c>
       <c r="H32">
-        <v>0.804733727810651</v>
+        <v>0.793296089385475</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="K32">
-        <v>-0.002215128032345</v>
+        <v>-0.0039964448739403</v>
       </c>
       <c r="L32">
-        <v>-0.0064693780802679</v>
+        <v>-0.0076999263049143</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.0008673387717476</v>
       </c>
       <c r="N32">
-        <v>-1.17825959167288</v>
+        <v>-2.17198090975018</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q32">
         <v>1828591</v>
@@ -2817,19 +2814,19 @@
         <v>5496386</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,40 +2843,40 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33">
-        <v>0.318950831617109</v>
+        <v>0.083143943279945</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.47752808988764</v>
+        <v>0.466292134831461</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.515</v>
+        <v>7.54</v>
       </c>
       <c r="K33">
-        <v>-0.0019083072100313</v>
+        <v>-0.0061146763392857</v>
       </c>
       <c r="L33">
-        <v>-0.0097548100381343</v>
+        <v>-0.0138843027765846</v>
       </c>
       <c r="M33">
-        <v>0.0053065620944865</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-0.0253933095147224</v>
+        <v>-0.0810965031735513</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1828591</v>
@@ -2888,16 +2885,16 @@
         <v>5496386</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,40 +2911,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.971721116220424</v>
+        <v>0.997232884293802</v>
       </c>
       <c r="G34">
-        <v>0.0446927374301676</v>
+        <v>0.0502793296089385</v>
       </c>
       <c r="H34">
-        <v>0.70391061452514</v>
+        <v>0.653631284916201</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.2169</v>
+        <v>0.2</v>
       </c>
       <c r="K34">
-        <v>-0.0029089628238429</v>
+        <v>-0.0038834680685212</v>
       </c>
       <c r="L34">
-        <v>-0.0067464355943119</v>
+        <v>-0.0077310909460895</v>
       </c>
       <c r="M34">
-        <v>-0.0002507776240535</v>
+        <v>-0.001500221275016</v>
       </c>
       <c r="N34">
-        <v>-1.34115390679713</v>
+        <v>-1.94173403426062</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q34">
         <v>1828591</v>
@@ -2956,19 +2953,19 @@
         <v>5496386</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,40 +2982,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>0.983027801259073</v>
+        <v>0.994873226026268</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.5418994413407821</v>
+        <v>0.5307262569832401</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.418</v>
+        <v>0.4</v>
       </c>
       <c r="K35">
-        <v>-0.0049907779399829</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L35">
-        <v>-0.0088815932801473</v>
+        <v>-0.0090911512374167</v>
       </c>
       <c r="M35">
-        <v>-0.0014255347135893</v>
+        <v>-0.0024921169136499</v>
       </c>
       <c r="N35">
-        <v>-1.19396601434998</v>
+        <v>-1.25429258241758</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1828591</v>
@@ -3027,19 +3024,19 @@
         <v>5496386</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,41 +3053,41 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>0.0298337907734002</v>
+        <v>0.109361086452023</v>
       </c>
       <c r="G36">
         <v>0.0111731843575419</v>
       </c>
       <c r="H36">
-        <v>0.279329608938547</v>
+        <v>0.273743016759777</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K36">
-        <v>0.0002278540237055</v>
+        <v>0.0001251284686536</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.0004655764496334</v>
+        <v>0.000351029114554</v>
       </c>
       <c r="N36">
-        <v>1.4240876481597</v>
+        <v>0.834189791024324</v>
       </c>
       <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
         <v>40</v>
       </c>
-      <c r="P36" t="s">
-        <v>53</v>
-      </c>
       <c r="Q36">
         <v>1828591</v>
       </c>
@@ -3098,19 +3095,19 @@
         <v>5496386</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37">
-        <v>0.302085904285411</v>
+        <v>0.602261582302754</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3142,25 +3139,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="K37">
-        <v>0.0071477495107632</v>
+        <v>-0.0033394371203876</v>
       </c>
       <c r="L37">
-        <v>-0.0175338268813957</v>
+        <v>-0.0263068103194965</v>
       </c>
       <c r="M37">
-        <v>0.0415925649765464</v>
+        <v>0.0221076029970823</v>
       </c>
       <c r="N37">
-        <v>0.461145129726658</v>
+        <v>-0.225637643269433</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q37">
         <v>1828591</v>
@@ -3169,19 +3166,19 @@
         <v>5496386</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
